--- a/spreadsheets/overall_issue_stats.xlsx
+++ b/spreadsheets/overall_issue_stats.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Count (Total: 206)</t>
+          <t>Count (Total: 205)</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">

--- a/spreadsheets/overall_issue_stats.xlsx
+++ b/spreadsheets/overall_issue_stats.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Count (Total: 205)</t>
+          <t>Count (Total: 223)</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/overall_issue_stats.xlsx
+++ b/spreadsheets/overall_issue_stats.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Count (Total: 223)</t>
+          <t>Count (Total: 220)</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">

--- a/spreadsheets/overall_issue_stats.xlsx
+++ b/spreadsheets/overall_issue_stats.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Count (Total: 220)</t>
+          <t>Count (Total: 229)</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/overall_issue_stats.xlsx
+++ b/spreadsheets/overall_issue_stats.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Count (Total: 229)</t>
+          <t>Count (Total: 232)</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">

--- a/spreadsheets/overall_issue_stats.xlsx
+++ b/spreadsheets/overall_issue_stats.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">

--- a/spreadsheets/overall_issue_stats.xlsx
+++ b/spreadsheets/overall_issue_stats.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Count (Total: 232)</t>
+          <t>Count (Total: 239)</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">

--- a/spreadsheets/overall_issue_stats.xlsx
+++ b/spreadsheets/overall_issue_stats.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Count (Total: 239)</t>
+          <t>Count (Total: 235)</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/overall_issue_stats.xlsx
+++ b/spreadsheets/overall_issue_stats.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Count (Total: 235)</t>
+          <t>Count (Total: 241)</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">

--- a/spreadsheets/overall_issue_stats.xlsx
+++ b/spreadsheets/overall_issue_stats.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Count (Total: 241)</t>
+          <t>Count (Total: 237)</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/overall_issue_stats.xlsx
+++ b/spreadsheets/overall_issue_stats.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">

--- a/spreadsheets/overall_issue_stats.xlsx
+++ b/spreadsheets/overall_issue_stats.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Count (Total: 237)</t>
+          <t>Count (Total: 239)</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">

--- a/spreadsheets/overall_issue_stats.xlsx
+++ b/spreadsheets/overall_issue_stats.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Count (Total: 239)</t>
+          <t>Count (Total: 244)</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">

--- a/spreadsheets/overall_issue_stats.xlsx
+++ b/spreadsheets/overall_issue_stats.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Count (Total: 244)</t>
+          <t>Count (Total: 243)</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
